--- a/misc/exemplos.xlsx
+++ b/misc/exemplos.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\main-regressao-linear\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25928574-4DAA-487B-92AA-A459F4240F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C8865A-9984-4450-A9B8-82F598B27974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="visao" sheetId="2" r:id="rId1"/>
     <sheet name="credit" sheetId="1" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -161,6 +172,15 @@
   <si>
     <t>(27.8,40.1]</t>
   </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>pred</t>
+  </si>
 </sst>
 </file>
 
@@ -203,10 +223,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -225,8 +248,1146 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>visao!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distancia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>visao!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>visao!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07BC-4559-BE48-8BA08D6ECA5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="947696911"/>
+        <c:axId val="947697743"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>visao!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>visao!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>visao!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07BC-4559-BE48-8BA08D6ECA5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="947696911"/>
+        <c:axId val="947697743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="947696911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947697743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="947697743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947696911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C46D7B-77B3-4350-84EB-72FB7B1024DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,15 +1707,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E0A149-338C-48EB-99D7-DD27B071607B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -564,8 +1725,17 @@
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -575,8 +1745,18 @@
       <c r="C2">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>$G$2+$H$2*B2</f>
+        <v>172</v>
+      </c>
+      <c r="G2">
+        <v>190</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,8 +1766,12 @@
       <c r="C3">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">$G$2+$H$2*B3</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,8 +1781,12 @@
       <c r="C4">
         <v>187</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -608,8 +1796,12 @@
       <c r="C5">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -619,8 +1811,12 @@
       <c r="C6">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -630,8 +1826,12 @@
       <c r="C7">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,8 +1841,12 @@
       <c r="C8">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -652,8 +1856,12 @@
       <c r="C9">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -663,8 +1871,12 @@
       <c r="C10">
         <v>153</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -674,8 +1886,12 @@
       <c r="C11">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -685,8 +1901,12 @@
       <c r="C12">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -696,9 +1916,14 @@
       <c r="C13">
         <v>153</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -706,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
